--- a/src/main/webapp/WEB-INF/template/memberTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/template/memberTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juniorSun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\manager\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6780" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="7230" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,511 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="11">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张敏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件8班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件10班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张家健</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖洒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件6班</t>
-  </si>
-  <si>
-    <t>软件3班</t>
-  </si>
-  <si>
-    <t>陈珊珊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件4班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万志明</t>
-  </si>
-  <si>
-    <t>谢奇标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件5班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高爱云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">软件八班 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林聪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件9班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方琪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件五班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁姿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件4班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐波</t>
-  </si>
-  <si>
-    <t>软件十班</t>
-  </si>
-  <si>
-    <t>软件十班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周振兴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件一班</t>
-  </si>
-  <si>
-    <t>杨昌平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件10班</t>
-  </si>
-  <si>
-    <t>软件10班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件6班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 软件9班</t>
-  </si>
-  <si>
-    <t>李杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>许琦彬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件8班</t>
-  </si>
-  <si>
-    <t>周洋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件1班</t>
-  </si>
-  <si>
-    <t>钟远智</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶坚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张毅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪江楠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件7班</t>
-  </si>
-  <si>
-    <t>李珊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 软件2班</t>
-  </si>
-  <si>
-    <t>邓晨峰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计网一班</t>
-  </si>
-  <si>
-    <t>程友松</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 软件6班  </t>
-  </si>
-  <si>
-    <t>邵嗣松</t>
-  </si>
-  <si>
-    <t>毛涛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13计网五年一班</t>
-  </si>
-  <si>
-    <t>何子彦</t>
-  </si>
-  <si>
-    <r>
-      <t>计网4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘鹏</t>
-  </si>
-  <si>
-    <t>李明瑞</t>
-  </si>
-  <si>
-    <t>软件六班</t>
-  </si>
-  <si>
-    <t>袁小慧</t>
-  </si>
-  <si>
-    <t>软件技术4班</t>
-  </si>
-  <si>
-    <t xml:space="preserve">钟日清 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 黄志明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">软件二班 </t>
-  </si>
-  <si>
-    <t>王熙平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">软件9班 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">尧西西  </t>
-  </si>
-  <si>
-    <t>万怡勇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">软件二班  </t>
-  </si>
-  <si>
-    <t>郭锦明</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 软件9班      </t>
-  </si>
-  <si>
-    <t>张洪福</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 软件4班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件9班</t>
-  </si>
-  <si>
-    <t>康述明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>严磊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件5班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓新城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡仙鹏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件3班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赖志勇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方琪</t>
-  </si>
-  <si>
-    <t>软件五班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程鑫杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周聪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢志强</t>
-  </si>
-  <si>
-    <t>软件1班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 邰子权 </t>
-  </si>
-  <si>
-    <t>程斌</t>
-  </si>
-  <si>
-    <t>软件九班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖洒</t>
-  </si>
-  <si>
-    <t>16软件6班</t>
-  </si>
-  <si>
-    <t>赖耀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件9班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工造三班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶金涛</t>
-  </si>
-  <si>
-    <t>宋文贤</t>
-  </si>
-  <si>
-    <t>软件2班</t>
-  </si>
-  <si>
-    <t>曹庆波</t>
-  </si>
-  <si>
-    <t>许必成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">程颖 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李扬</t>
-  </si>
-  <si>
-    <t>刘腾</t>
-  </si>
-  <si>
-    <t>计网4班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈正华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件一班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件5班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘福民</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹紫鹏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件技术四班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件9班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周天峰</t>
-  </si>
-  <si>
-    <t>廖仁杰</t>
-  </si>
-  <si>
-    <t>软件9班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高伟平</t>
-  </si>
-  <si>
-    <t>计网4班</t>
-  </si>
-  <si>
-    <t>周子翔</t>
-  </si>
-  <si>
-    <t>段亮亮</t>
-  </si>
-  <si>
-    <t>软件三班</t>
-  </si>
-  <si>
-    <t>陈天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件二班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左深明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件6班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 彭圳     </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘国颂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件三班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈诚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 软件三班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程浩东</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万志明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件5班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐勇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件5班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林聪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 软件9班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶克武</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢嘉欣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件6班</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -558,7 +56,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>办公室</t>
+    <t>xxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某班级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,13 +104,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -614,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -637,24 +136,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,27 +153,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,7 +433,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,99 +450,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>18870289619</v>
+        <v>12345678901</v>
       </c>
       <c r="E2" s="2">
         <v>2016</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>13767703844</v>
+        <v>12345678901</v>
       </c>
       <c r="E3" s="2">
         <v>2016</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>15798007518</v>
+        <v>12345678901</v>
       </c>
       <c r="E4" s="2">
         <v>2016</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>13870792972</v>
+        <v>12345678901</v>
       </c>
       <c r="E5" s="2">
         <v>2016</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1086,1457 +553,1457 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>13077998983</v>
+        <v>12345678901</v>
       </c>
       <c r="E6" s="2">
         <v>2016</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>18797819559</v>
+        <v>12345678901</v>
       </c>
       <c r="E7" s="2">
         <v>2016</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18160741845</v>
+        <v>12345678901</v>
       </c>
       <c r="E8" s="2">
         <v>2016</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>18970818991</v>
+        <v>12345678901</v>
       </c>
       <c r="E9" s="2">
         <v>2016</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>18270468606</v>
+        <v>12345678901</v>
       </c>
       <c r="E10" s="2">
         <v>2016</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>57</v>
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="7">
-        <v>15707050487</v>
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E11" s="2">
         <v>2016</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>13237079903</v>
+        <v>12345678901</v>
       </c>
       <c r="E12" s="2">
         <v>2016</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>18167181258</v>
+        <v>12345678901</v>
       </c>
       <c r="E13" s="2">
         <v>2016</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>18279468051</v>
+        <v>12345678901</v>
       </c>
       <c r="E14" s="2">
         <v>2016</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>15798092868</v>
+        <v>12345678901</v>
       </c>
       <c r="E15" s="2">
         <v>2016</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>15870750729</v>
+        <v>12345678901</v>
       </c>
       <c r="E16" s="2">
         <v>2016</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>18397816276</v>
+        <v>12345678901</v>
       </c>
       <c r="E17" s="2">
         <v>2016</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>15270219073</v>
+        <v>12345678901</v>
       </c>
       <c r="E18" s="2">
         <v>2016</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>15507985867</v>
+        <v>12345678901</v>
       </c>
       <c r="E19" s="2">
         <v>2016</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>13647083455</v>
+        <v>12345678901</v>
       </c>
       <c r="E20" s="2">
         <v>2016</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>18676578690</v>
+        <v>12345678901</v>
       </c>
       <c r="E21" s="2">
         <v>2016</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>13077998936</v>
+        <v>12345678901</v>
       </c>
       <c r="E22" s="2">
         <v>2016</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>15079377334</v>
+        <v>12345678901</v>
       </c>
       <c r="E23" s="2">
         <v>2016</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>18827809370</v>
+        <v>12345678901</v>
       </c>
       <c r="E24" s="2">
         <v>2016</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>13617014918</v>
+        <v>12345678901</v>
       </c>
       <c r="E25" s="2">
         <v>2016</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>18720790057</v>
+        <v>12345678901</v>
       </c>
       <c r="E26" s="2">
         <v>2016</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>13647083445</v>
+        <v>12345678901</v>
       </c>
       <c r="E27" s="2">
         <v>2016</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>18379601941</v>
+        <v>12345678901</v>
       </c>
       <c r="E28" s="2">
         <v>2016</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>18279211440</v>
+        <v>12345678901</v>
       </c>
       <c r="E29" s="2">
         <v>2016</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>18170918979</v>
+        <v>12345678901</v>
       </c>
       <c r="E30" s="2">
         <v>2016</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>18379848207</v>
+        <v>12345678901</v>
       </c>
       <c r="E31" s="2">
         <v>2016</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3">
-        <v>15170928225</v>
+        <v>12345678901</v>
       </c>
       <c r="E32" s="2">
         <v>2016</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>18179099070</v>
+        <v>12345678901</v>
       </c>
       <c r="E33" s="2">
         <v>2016</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>15779896751</v>
+        <v>12345678901</v>
       </c>
       <c r="E34" s="2">
         <v>2016</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>13077999389</v>
+        <v>12345678901</v>
       </c>
       <c r="E35" s="2">
         <v>2016</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>13097307409</v>
+        <v>12345678901</v>
       </c>
       <c r="E36" s="2">
         <v>2016</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>18379438700</v>
+        <v>12345678901</v>
       </c>
       <c r="E37" s="2">
         <v>2016</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>18770068647</v>
+        <v>12345678901</v>
       </c>
       <c r="E38" s="2">
         <v>2016</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>67</v>
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3">
-        <v>15270298964</v>
+        <v>12345678901</v>
       </c>
       <c r="E39" s="2">
         <v>2016</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3">
-        <v>18170873647</v>
+        <v>12345678901</v>
       </c>
       <c r="E40" s="2">
         <v>2016</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D41" s="3">
-        <v>18270791322</v>
+        <v>12345678901</v>
       </c>
       <c r="E41" s="2">
         <v>2016</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>13617964387</v>
+        <v>12345678901</v>
       </c>
       <c r="E42" s="2">
         <v>2016</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>13387941453</v>
+        <v>12345678901</v>
       </c>
       <c r="E43" s="2">
         <v>2016</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3">
-        <v>15170079178</v>
+        <v>12345678901</v>
       </c>
       <c r="E44" s="2">
         <v>2016</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D45" s="3">
-        <v>18270093861</v>
+        <v>12345678901</v>
       </c>
       <c r="E45" s="2">
         <v>2016</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="5">
-        <v>18370263580</v>
+        <v>3</v>
+      </c>
+      <c r="D46" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E46" s="2">
         <v>2016</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>78</v>
+      <c r="A47" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D47" s="3">
-        <v>18167181258</v>
+        <v>12345678901</v>
       </c>
       <c r="E47" s="2">
         <v>2016</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D48" s="3">
-        <v>15979056377</v>
+        <v>12345678901</v>
       </c>
       <c r="E48" s="2">
         <v>2016</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>6</v>
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D49" s="3">
-        <v>15807044612</v>
+        <v>12345678901</v>
       </c>
       <c r="E49" s="2">
         <v>2016</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>82</v>
+      <c r="A50" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D50" s="3">
-        <v>15070424334</v>
+        <v>12345678901</v>
       </c>
       <c r="E50" s="2">
         <v>2016</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>84</v>
+      <c r="A51" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D51" s="3">
-        <v>13257917718</v>
+        <v>12345678901</v>
       </c>
       <c r="E51" s="2">
         <v>2016</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>85</v>
+      <c r="A52" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D52" s="3">
-        <v>18046733285</v>
+        <v>12345678901</v>
       </c>
       <c r="E52" s="2">
         <v>2016</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>88</v>
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D53" s="3">
-        <v>15798007518</v>
+        <v>12345678901</v>
       </c>
       <c r="E53" s="2">
         <v>2016</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3">
-        <v>18279717701</v>
+        <v>12345678901</v>
       </c>
       <c r="E54" s="2">
         <v>2016</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D55" s="3">
-        <v>15949585935</v>
+        <v>12345678901</v>
       </c>
       <c r="E55" s="2">
         <v>2016</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3">
-        <v>15170838435</v>
+        <v>12345678901</v>
       </c>
       <c r="E56" s="2">
         <v>2016</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D57" s="3">
-        <v>14796347200</v>
+        <v>12345678901</v>
       </c>
       <c r="E57" s="2">
         <v>2016</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3">
-        <v>18270802267</v>
+        <v>12345678901</v>
       </c>
       <c r="E58" s="2">
         <v>2016</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D59" s="3">
-        <v>15180636837</v>
+        <v>12345678901</v>
       </c>
       <c r="E59" s="2">
         <v>2016</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D60" s="3">
-        <v>13576590904</v>
+        <v>12345678901</v>
       </c>
       <c r="E60" s="2">
         <v>2016</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D61" s="3">
-        <v>13767876164</v>
+        <v>12345678901</v>
       </c>
       <c r="E61" s="2">
         <v>2016</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D62" s="3">
-        <v>15297825187</v>
+        <v>12345678901</v>
       </c>
       <c r="E62" s="2">
         <v>2016</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D63" s="3">
-        <v>15946908909</v>
+        <v>12345678901</v>
       </c>
       <c r="E63" s="2">
         <v>2016</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>110</v>
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="7">
-        <v>18397941288</v>
+        <v>3</v>
+      </c>
+      <c r="D64" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E64" s="2">
         <v>2016</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>112</v>
+      <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="7">
-        <v>13517914975</v>
+        <v>3</v>
+      </c>
+      <c r="D65" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E65" s="2">
         <v>2016</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>41</v>
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="7">
-        <v>18296272015</v>
+        <v>3</v>
+      </c>
+      <c r="D66" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E66" s="2">
         <v>2016</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>115</v>
+      <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="7">
-        <v>15070212683</v>
+        <v>3</v>
+      </c>
+      <c r="D67" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E67" s="2">
         <v>2016</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>117</v>
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="7">
-        <v>17770828245</v>
+        <v>3</v>
+      </c>
+      <c r="D68" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E68" s="2">
         <v>2016</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>117</v>
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="7">
-        <v>13155857328</v>
+        <v>3</v>
+      </c>
+      <c r="D69" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E69" s="2">
         <v>2016</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>119</v>
+      <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="7">
-        <v>15279790258</v>
+        <v>3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E70" s="2">
         <v>2016</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>122</v>
+      <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="7">
-        <v>18079913598</v>
+        <v>3</v>
+      </c>
+      <c r="D71" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E71" s="2">
         <v>2016</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>124</v>
+      <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="7">
-        <v>15179210093</v>
+        <v>3</v>
+      </c>
+      <c r="D72" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E72" s="2">
         <v>2016</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>127</v>
+      <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D73" s="10">
-        <v>18797819559</v>
+        <v>3</v>
+      </c>
+      <c r="D73" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E73" s="2">
         <v>2016</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>129</v>
+      <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="7">
-        <v>15179294200</v>
+        <v>3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E74" s="2">
         <v>2016</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>131</v>
+      <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" s="7">
-        <v>13237079903</v>
+        <v>3</v>
+      </c>
+      <c r="D75" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E75" s="2">
         <v>2016</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>12</v>
+      <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" s="7">
-        <v>18879496391</v>
+        <v>3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E76" s="2">
         <v>2016</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>12</v>
+      <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="7">
-        <v>18970818991</v>
+        <v>3</v>
+      </c>
+      <c r="D77" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E77" s="2">
         <v>2016</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>135</v>
+      <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" s="7">
-        <v>18279543513</v>
+        <v>4</v>
+      </c>
+      <c r="D78" s="3">
+        <v>12345678901</v>
       </c>
       <c r="E78" s="2">
         <v>2016</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
